--- a/biology/Zoologie/Galloway_(race_bovine)/Galloway_(race_bovine).xlsx
+++ b/biology/Zoologie/Galloway_(race_bovine)/Galloway_(race_bovine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Galloway est une race bovine écossaise. 
@@ -512,10 +524,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient au rameau celtique, un bétail noir arrivé avec les Celtes[1] au Néolithique. Elle est originaire de la région de Galloway, au sud-ouest de l'Écosse. C'est l'une des plus vieilles races britanniques, même si son livre généalogique ne date que de 1862.
-En 1997, son effectif est de 6000 vaches et 196 taureaux, dont 4 disponibles en insémination artificielle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient au rameau celtique, un bétail noir arrivé avec les Celtes au Néolithique. Elle est originaire de la région de Galloway, au sud-ouest de l'Écosse. C'est l'une des plus vieilles races britanniques, même si son livre généalogique ne date que de 1862.
+En 1997, son effectif est de 6000 vaches et 196 taureaux, dont 4 disponibles en insémination artificielle.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe noire. Il existe cependant des variantes rouge, ceinturée (belted galloway) ou blanche. Ses poils sont longs et ont tendance à friser. Elle n'a pas de cornes.
 C'est une race de petite taille mais lourde et musclée : 120 cm pour une masse de 450-500 kg chez la vache et 138 cm pour 750 kg chez le taureau.
@@ -576,7 +592,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est aujourd'hui une race essentiellement bouchère, mais elle a fourni par le passé lait et cuir. Elle donne une viande tendre, juteuse et savoureuse. Des essais aux États-Unis ont classé sa viande en tête de 11 races en dégustation. 
 Elle est réputée pour sa rusticité : 
